--- a/Requirements table.xlsx
+++ b/Requirements table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="20" windowWidth="25600" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Non-Functional</t>
   </si>
@@ -67,6 +67,42 @@
   </si>
   <si>
     <t>Uberchat shall make use of a command named "REQUUID" which will trigger the server to reply with a unique UUID.</t>
+  </si>
+  <si>
+    <t>Uberchat shall not allow any client to connect/join any chatroom without a UUID.</t>
+  </si>
+  <si>
+    <t>Uberchat shall echo back the stored string associated with the client that sent the command.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uberchat shall make use of a command named " REQCHATROOMS" which will trigger the server to send, via TCP, a list of all available chatrooms if any. </t>
+  </si>
+  <si>
+    <t>Uberchat shall make use of a command named "NAMECHATROOM" which will trigger the server to store all subsequent charaters, up until the terminating charater, and create a chatroom named after the stored string.</t>
+  </si>
+  <si>
+    <t>Uberchat shall add newly created chatrooms to the chatroom list upon executing the "NAMECHATROOM" command.</t>
+  </si>
+  <si>
+    <t>Uberchat server shall echo the stored string (chatroom name) back to the client that requested the "NAMECHATROOM" command.</t>
+  </si>
+  <si>
+    <t>Uberchat shall make use of a command named "SENDTEXT" that will trigger the server to store all subsequent characters, up until the terminating charater and echo the stored string to all available clients in the chatroom.</t>
+  </si>
+  <si>
+    <t>Uberchat shall compare the clients nickname against the list of used nicknames and modify the nickname, if nessesary, to make it unique. This will be done everytime a user changes or creates a new nick.</t>
+  </si>
+  <si>
+    <t>Uberchat shall make use of a command named "NICK" which will trigger the server to store all subsequent characters, up until the    terminating character, and associate that nickname with the clients UUID.</t>
+  </si>
+  <si>
+    <t>Uberchat shall echo the count/number of characters, including any spaces and excluding the terminating charater, in the stored string back to the client that requested the "SENDTEXT" command.</t>
+  </si>
+  <si>
+    <t>Uberchat shall make use of a command named "REQTEXT" that will trigger the server to echo all text in the buffer back to the client that requested the "REQTEXT" command.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uberchat server shall have a 3,000 character buffer </t>
   </si>
 </sst>
 </file>
@@ -102,8 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,14 +477,14 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="113.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -572,83 +611,119 @@
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
